--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,18 @@
     <t>crude</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
@@ -82,6 +82,9 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,13 +100,19 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
@@ -112,21 +121,18 @@
     <t>good</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -139,28 +145,28 @@
     <t>like</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -521,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -590,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -640,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8082191780821918</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C4">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.797945205479452</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L7">
         <v>27</v>
       </c>
-      <c r="K7">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L7">
-        <v>31</v>
-      </c>
       <c r="M7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,16 +867,16 @@
         <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,16 +917,16 @@
         <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L9">
         <v>29</v>
       </c>
-      <c r="K9">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
       <c r="M9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5406976744186046</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C10">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D10">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.7924528301886793</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,37 +996,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.7875</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5033557046979866</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>0.79375</v>
+      </c>
+      <c r="L13">
+        <v>127</v>
+      </c>
+      <c r="M13">
+        <v>127</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>33</v>
-      </c>
-      <c r="K13">
-        <v>0.78125</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13">
-        <v>100</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2777777777777778</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.246031746031746</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1501340482573726</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,45 +1264,69 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.01095008051529791</v>
+      </c>
+      <c r="C17">
+        <v>34</v>
+      </c>
+      <c r="D17">
         <v>36</v>
       </c>
-      <c r="K16">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L16">
-        <v>26</v>
-      </c>
-      <c r="M16">
-        <v>26</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
+      <c r="E17">
+        <v>0.06</v>
+      </c>
+      <c r="F17">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3071</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.6976744186046512</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L18">
         <v>33</v>
@@ -1334,197 +1364,197 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>45</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.6529411764705882</v>
+      </c>
+      <c r="L21">
+        <v>222</v>
+      </c>
+      <c r="M21">
+        <v>222</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.64</v>
+      </c>
+      <c r="L22">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.625</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L19">
-        <v>43</v>
-      </c>
-      <c r="M19">
-        <v>43</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.638235294117647</v>
-      </c>
-      <c r="L20">
-        <v>217</v>
-      </c>
-      <c r="M20">
-        <v>217</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>40</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L24">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>58</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.606694560669456</v>
+      </c>
+      <c r="L25">
+        <v>145</v>
+      </c>
+      <c r="M25">
+        <v>145</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
         <v>0.6</v>
-      </c>
-      <c r="L22">
-        <v>177</v>
-      </c>
-      <c r="M22">
-        <v>177</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.5857740585774058</v>
-      </c>
-      <c r="L23">
-        <v>140</v>
-      </c>
-      <c r="M23">
-        <v>140</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="L24">
-        <v>55</v>
-      </c>
-      <c r="M24">
-        <v>55</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L25">
-        <v>28</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.5571428571428572</v>
       </c>
       <c r="L26">
         <v>39</v>
@@ -1542,47 +1572,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.550561797752809</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
+        <v>177</v>
+      </c>
+      <c r="M27">
+        <v>177</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M27">
-        <v>49</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="K28">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L28">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.4901960784313725</v>
-      </c>
-      <c r="L28">
-        <v>25</v>
-      </c>
       <c r="M28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1594,33 +1624,59 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L30">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>53</v>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
